--- a/Lab1/analysis/Knapsack/double-2.xlsx
+++ b/Lab1/analysis/Knapsack/double-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="double-2" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mutation Rate</a:t>
+              <a:t>Mutation Probability</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1292,11 +1292,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1039271856"/>
-        <c:axId val="-1039135616"/>
+        <c:axId val="-122274160"/>
+        <c:axId val="-122273616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1039271856"/>
+        <c:axId val="-122274160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1337,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Mutation Rate</a:t>
+                  <a:t>Mutation Probability</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1409,12 +1409,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1039135616"/>
+        <c:crossAx val="-122273616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1039135616"/>
+        <c:axId val="-122273616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,7 +1527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1039271856"/>
+        <c:crossAx val="-122274160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
